--- a/output.xlsx
+++ b/output.xlsx
@@ -552,16 +552,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9740295057819133</v>
+        <v>0.9795484031380082</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9394511155795767</v>
+        <v>0.937164554321494</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8681275449528847</v>
+        <v>0.863888942040373</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7856698657370704</v>
+        <v>0.7857767557570803</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -573,13 +573,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9741490477772107</v>
+        <v>0.9586637560265109</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9028830270751727</v>
+        <v>0.8819111652378081</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8133002854687822</v>
+        <v>0.7968348719112545</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9282845132404821</v>
+        <v>0.9078269051098864</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8418551995516215</v>
+        <v>0.83397786578804</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8421117473666784</v>
+        <v>0.9331515048420869</v>
       </c>
     </row>
     <row r="3">
@@ -644,16 +644,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9743932075442006</v>
+        <v>0.976773771450086</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9195320529457029</v>
+        <v>0.9367200768157631</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8716726760353709</v>
+        <v>0.8443068726980284</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7885092794692727</v>
+        <v>0.7801177437801471</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.938532564840531</v>
+        <v>0.9544297036267393</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8812506969447589</v>
+        <v>0.8685780814032871</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7995954160356916</v>
+        <v>0.8078501815522174</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9512377141973209</v>
+        <v>0.9183172828725865</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8692611330160067</v>
+        <v>0.8577438466394962</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8751255223771476</v>
+        <v>0.9422709237945167</v>
       </c>
     </row>
     <row r="4">
@@ -736,16 +736,16 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9668955770448249</v>
+        <v>0.9558737818650731</v>
       </c>
       <c r="J4" t="n">
-        <v>0.919312208286541</v>
+        <v>0.9105553966290183</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8490174828814551</v>
+        <v>0.8538450471852649</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7623716146755668</v>
+        <v>0.7801015006082184</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9549779520895059</v>
+        <v>0.9490368801651611</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8498593733900295</v>
+        <v>0.9002707171034908</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7796618756163703</v>
+        <v>0.8116866357011051</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8810080150294746</v>
+        <v>0.9578139507279929</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7943127212983782</v>
+        <v>0.866351674004579</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.9189312933990905</v>
+        <v>0.883892571535599</v>
       </c>
     </row>
     <row r="5">
@@ -828,16 +828,16 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9725655287433631</v>
+        <v>0.9781629911547691</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9391907040931733</v>
+        <v>0.9167115473697351</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8561315997613368</v>
+        <v>0.8540605661676512</v>
       </c>
       <c r="L5" t="n">
-        <v>0.775543523126409</v>
+        <v>0.7854282018859351</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9736679806986924</v>
+        <v>0.9249835409010038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8908930659837695</v>
+        <v>0.8612258868388908</v>
       </c>
       <c r="R5" t="n">
-        <v>0.824999091532115</v>
+        <v>0.8031621253629249</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9290216849616525</v>
+        <v>0.9412244236695834</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8777444968898547</v>
+        <v>0.8641525226221191</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.9458095034355563</v>
+        <v>0.9002010480746248</v>
       </c>
     </row>
     <row r="6">
@@ -920,16 +920,16 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9721282622687669</v>
+        <v>0.971598752557402</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9252476379048779</v>
+        <v>0.9166846889578629</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8592203124191011</v>
+        <v>0.8510190102748383</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8018786353292056</v>
+        <v>0.7722219055533777</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9466100040630351</v>
+        <v>0.9534863941942572</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8789760364760282</v>
+        <v>0.8610450873981663</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8132089407954429</v>
+        <v>0.7680222023277711</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9271163389073329</v>
+        <v>0.9002430674026458</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8396228135556912</v>
+        <v>0.7965639019996773</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8916403188266525</v>
+        <v>0.9243592736303979</v>
       </c>
     </row>
   </sheetData>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02631368238784948</v>
+        <v>0.02066362664899777</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03614581147387421</v>
+        <v>0.04423276724112837</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07895714006490295</v>
+        <v>0.08141466385496361</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09980195900485318</v>
+        <v>0.0947714949051453</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02619096058164847</v>
+        <v>0.04221488494759975</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07597131149702281</v>
+        <v>0.08344906278533892</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1044926107302049</v>
+        <v>0.1014438609876037</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07441700564067062</v>
+        <v>0.0967015516925418</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09773024591697764</v>
+        <v>0.08484686510552976</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1718425569583735</v>
+        <v>0.06918770670672143</v>
       </c>
     </row>
     <row r="3">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02594035296192566</v>
+        <v>0.02350020805097614</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05795002347986233</v>
+        <v>0.04187057738565288</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05345092061996366</v>
+        <v>0.103868471789447</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1002698070776344</v>
+        <v>0.0790711599004752</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06343772473973613</v>
+        <v>0.04664128585505425</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06297540925693428</v>
+        <v>0.09425650774115391</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09723627519745059</v>
+        <v>0.0724808629280556</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04999128531953232</v>
+        <v>0.085212324031666</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09012041524548393</v>
+        <v>0.06823744707676256</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.133387948767773</v>
+        <v>0.05946244087872227</v>
       </c>
     </row>
     <row r="4">
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03366477586981097</v>
+        <v>0.0451294019849016</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05046471234978685</v>
+        <v>0.04857113769353097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07954601234112006</v>
+        <v>0.06430500555498508</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1076456583123567</v>
+        <v>0.09032569354622857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04606702558518283</v>
+        <v>0.05230761899332752</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1166173606703601</v>
+        <v>0.05275214511312435</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08621055982764789</v>
+        <v>0.1035811658232463</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1266885554375401</v>
+        <v>0.04310172579236374</v>
       </c>
       <c r="T4" t="n">
-        <v>0.103589484298676</v>
+        <v>0.1003626369850251</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08454392177266443</v>
+        <v>0.1234197491415232</v>
       </c>
     </row>
     <row r="5">
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02781782401833582</v>
+        <v>0.0220789652106952</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03491890362509583</v>
+        <v>0.06488345221049001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09259444897449964</v>
+        <v>0.07079074971610662</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0988599986578149</v>
+        <v>0.08377306267316015</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02668491569269499</v>
+        <v>0.07797933524855673</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08884595875199529</v>
+        <v>0.07141911966251786</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07684211937656608</v>
+        <v>0.06980023092304785</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07362319817845091</v>
+        <v>0.0605736729654173</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05677653533919055</v>
+        <v>0.08543232197975675</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05571410078355733</v>
+        <v>0.105137153855348</v>
       </c>
     </row>
     <row r="6">
@@ -1410,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0282675261606332</v>
+        <v>0.02881236576045843</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04942633448486543</v>
+        <v>0.05817935074113501</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07403605377780048</v>
+        <v>0.07432909540833445</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06906809566318177</v>
+        <v>0.09716251592443742</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05486809314935994</v>
+        <v>0.04763012337303887</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07412955077630053</v>
+        <v>0.1019782862363302</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07776955877905201</v>
+        <v>0.1143282273620091</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07567622085139343</v>
+        <v>0.1050904772296561</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09912629861952946</v>
+        <v>0.1223574471212306</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1146924577361746</v>
+        <v>0.07865445863769996</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -552,16 +552,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9795484031380082</v>
+        <v>0.9752417733421039</v>
       </c>
       <c r="J2" t="n">
-        <v>0.937164554321494</v>
+        <v>0.9190175834122847</v>
       </c>
       <c r="K2" t="n">
-        <v>0.863888942040373</v>
+        <v>0.8688136801849564</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7857767557570803</v>
+        <v>0.8002374679430941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -573,13 +573,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9586637560265109</v>
+        <v>0.9360978877213535</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8819111652378081</v>
+        <v>0.8965581410800157</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7968348719112545</v>
+        <v>0.816879922641858</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9078269051098864</v>
+        <v>0.9664146615187615</v>
       </c>
       <c r="X2" t="n">
-        <v>0.83397786578804</v>
+        <v>0.8779251114393994</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9331515048420869</v>
+        <v>0.9321232678650101</v>
       </c>
     </row>
     <row r="3">
@@ -644,16 +644,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.976773771450086</v>
+        <v>0.9712177595923828</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9367200768157631</v>
+        <v>0.9227074471117858</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8443068726980284</v>
+        <v>0.8286387690777544</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7801177437801471</v>
+        <v>0.7631561390989304</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9544297036267393</v>
+        <v>0.9547764947045089</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8685780814032871</v>
+        <v>0.8350486543247092</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8078501815522174</v>
+        <v>0.7707010282805469</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9183172828725865</v>
+        <v>0.8889131012857735</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8577438466394962</v>
+        <v>0.833025252716409</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.9422709237945167</v>
+        <v>0.9227353797778366</v>
       </c>
     </row>
     <row r="4">
@@ -736,16 +736,16 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9558737818650731</v>
+        <v>0.9691419212186241</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9105553966290183</v>
+        <v>0.9064200154169764</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8538450471852649</v>
+        <v>0.8678227332784721</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7801015006082184</v>
+        <v>0.7666760356788428</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9490368801651611</v>
+        <v>0.9456906826283276</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9002707171034908</v>
+        <v>0.9115850096900857</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8116866357011051</v>
+        <v>0.8022975318063181</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9578139507279929</v>
+        <v>0.9652451828130916</v>
       </c>
       <c r="X4" t="n">
-        <v>0.866351674004579</v>
+        <v>0.8305646408350751</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.883892571535599</v>
+        <v>0.9059452211096624</v>
       </c>
     </row>
     <row r="5">
@@ -828,16 +828,16 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9781629911547691</v>
+        <v>0.96201228667387</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9167115473697351</v>
+        <v>0.9248887809323538</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8540605661676512</v>
+        <v>0.8607900961210306</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7854282018859351</v>
+        <v>0.7749095880115682</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9249835409010038</v>
+        <v>0.9620940863378405</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8612258868388908</v>
+        <v>0.899981812643213</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8031621253629249</v>
+        <v>0.8066580707823998</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9412244236695834</v>
+        <v>0.9159446556299851</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8641525226221191</v>
+        <v>0.8300275772304105</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.9002010480746248</v>
+        <v>0.8821805772492677</v>
       </c>
     </row>
     <row r="6">
@@ -920,16 +920,16 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.971598752557402</v>
+        <v>0.9744932082762732</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9166846889578629</v>
+        <v>0.9260527671105343</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8510190102748383</v>
+        <v>0.8616200255136526</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7722219055533777</v>
+        <v>0.7841517146094061</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9534863941942572</v>
+        <v>0.9650132388338729</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8610450873981663</v>
+        <v>0.8742318491157812</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7680222023277711</v>
+        <v>0.7967161312963824</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9002430674026458</v>
+        <v>0.9300593540373946</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7965639019996773</v>
+        <v>0.8131404352159713</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9243592736303979</v>
+        <v>0.8623500107442854</v>
       </c>
     </row>
   </sheetData>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02066362664899777</v>
+        <v>0.02506986606585968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04423276724112837</v>
+        <v>0.05938015754201212</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08141466385496361</v>
+        <v>0.05617656024932154</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0947714949051453</v>
+        <v>0.08222017657492002</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04221488494759975</v>
+        <v>0.06603522707386399</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08344906278533892</v>
+        <v>0.04315690755826263</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1014438609876037</v>
+        <v>0.09307103380225</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0967015516925418</v>
+        <v>0.03416228064311622</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08484686510552976</v>
+        <v>0.09603170282984139</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06918770670672143</v>
+        <v>0.07029021138461164</v>
       </c>
     </row>
     <row r="3">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02350020805097614</v>
+        <v>0.02920457260811548</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04187057738565288</v>
+        <v>0.05123848082198878</v>
       </c>
       <c r="I3" t="n">
-        <v>0.103868471789447</v>
+        <v>0.1075279083504326</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0790711599004752</v>
+        <v>0.08232166845307744</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04664128585505425</v>
+        <v>0.04627800285095896</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09425650774115391</v>
+        <v>0.1339872843255282</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0724808629280556</v>
+        <v>0.08018946480623471</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.085212324031666</v>
+        <v>0.1177557970808617</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06823744707676256</v>
+        <v>0.06493552480808963</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05946244087872227</v>
+        <v>0.08041278138304223</v>
       </c>
     </row>
     <row r="4">
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0451294019849016</v>
+        <v>0.0313442162898851</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04857113769353097</v>
+        <v>0.06690827089991809</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06430500555498508</v>
+        <v>0.04351532232216992</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09032569354622857</v>
+        <v>0.1239231358450371</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05230761899332752</v>
+        <v>0.05583973736372842</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05275214511312435</v>
+        <v>0.03673068833767103</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1035811658232463</v>
+        <v>0.127705326923319</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04310172579236374</v>
+        <v>0.03537313446087224</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1003626369850251</v>
+        <v>0.1502763848603416</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1234197491415232</v>
+        <v>0.09877643711844536</v>
       </c>
     </row>
     <row r="5">
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0220789652106952</v>
+        <v>0.03872805638773212</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06488345221049001</v>
+        <v>0.03935372914089452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07079074971610662</v>
+        <v>0.07182280954778406</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08377306267316015</v>
+        <v>0.1051043219879946</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07797933524855673</v>
+        <v>0.03864303025282895</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07141911966251786</v>
+        <v>0.06673769378339302</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06980023092304785</v>
+        <v>0.109474680574945</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0605736729654173</v>
+        <v>0.08779933575126568</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08543232197975675</v>
+        <v>0.09849701741337714</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.105137153855348</v>
+        <v>0.1253585078206422</v>
       </c>
     </row>
     <row r="6">
@@ -1410,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02881236576045843</v>
+        <v>0.02583772950337143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05817935074113501</v>
+        <v>0.0509863325354448</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07432909540833445</v>
+        <v>0.07211684913162335</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09716251592443742</v>
+        <v>0.09421185265021229</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04763012337303887</v>
+        <v>0.03561345873842373</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1019782862363302</v>
+        <v>0.09879620617914447</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1143282273620091</v>
+        <v>0.09284717024122785</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1050904772296561</v>
+        <v>0.07250687332575805</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1223574471212306</v>
+        <v>0.1343445739828784</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07865445863769996</v>
+        <v>0.1480940457854182</v>
       </c>
     </row>
   </sheetData>
